--- a/data/trans_dic/P57_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P57_R2-Estudios-trans_dic.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2056691454292489</v>
+        <v>0.2029002829302079</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2978430822628708</v>
+        <v>0.3007538458697155</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1564868439405843</v>
+        <v>0.1552669202924575</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2380974588690365</v>
+        <v>0.2367708896875939</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1853894582921816</v>
+        <v>0.1860593072860598</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2720109130582425</v>
+        <v>0.2734698251143747</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2682545344430665</v>
+        <v>0.2660327306192018</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3817019360197683</v>
+        <v>0.3845475287777781</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2053404116651396</v>
+        <v>0.2051208055711758</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2865627374778989</v>
+        <v>0.2853702642906465</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2241250393371221</v>
+        <v>0.2253468037641313</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3170247742503297</v>
+        <v>0.3176751327434018</v>
       </c>
     </row>
     <row r="7">
@@ -694,13 +694,13 @@
         <v>0.3078233700935639</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.4917251717267096</v>
+        <v>0.4917251717267095</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.2839034830309393</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.45789710850784</v>
+        <v>0.4578971085078401</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.2961238074749489</v>
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2883786638183276</v>
+        <v>0.2880940643749274</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.466697068926082</v>
+        <v>0.468206099513697</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2657053117606852</v>
+        <v>0.2639211123176951</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.4380450061946452</v>
+        <v>0.4375334520526091</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2813572700799611</v>
+        <v>0.2814597200684966</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.4599156179741025</v>
+        <v>0.4605054675233229</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3296349891470962</v>
+        <v>0.3284408288256638</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.514971861766061</v>
+        <v>0.5160774981846071</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3072761653099668</v>
+        <v>0.3044949939952041</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.4775859958395211</v>
+        <v>0.4784290580552237</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.309146115599689</v>
+        <v>0.311355199834602</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.4920891753101151</v>
+        <v>0.4918938619995533</v>
       </c>
     </row>
     <row r="10">
@@ -788,7 +788,7 @@
         <v>0.3642937066522062</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.4608470031925718</v>
+        <v>0.4608470031925719</v>
       </c>
     </row>
     <row r="11">
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3434479665481879</v>
+        <v>0.3383724626371894</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.4350999741554577</v>
+        <v>0.4390658379965316</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3026885880357916</v>
+        <v>0.301390079741273</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.4136546733646406</v>
+        <v>0.4115466591727625</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3324243099611921</v>
+        <v>0.3330105632392768</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.4337046702295138</v>
+        <v>0.4351716338015459</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4250241994632129</v>
+        <v>0.4288593310834701</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5157866168611179</v>
+        <v>0.5173613306447509</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3852564365839186</v>
+        <v>0.384190010487897</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.4812185610228313</v>
+        <v>0.4798523142529506</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3933411513518232</v>
+        <v>0.3935383908749209</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.4907071523678995</v>
+        <v>0.4858503773861204</v>
       </c>
     </row>
     <row r="13">
@@ -858,7 +858,7 @@
         <v>0.3041943474153771</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.4636418905330461</v>
+        <v>0.463641890533046</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.2638839157508269</v>
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2886500886642813</v>
+        <v>0.2876627691845127</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.445870528642879</v>
+        <v>0.4451612211964667</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2503380573320188</v>
+        <v>0.2492830678336453</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.3987200769872002</v>
+        <v>0.3980195487872599</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2727973450335743</v>
+        <v>0.2728858267668502</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.4263855887141865</v>
+        <v>0.4251797668461518</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3205880882308123</v>
+        <v>0.3206686192494667</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.4838702806549996</v>
+        <v>0.4823972255998594</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2806312898904667</v>
+        <v>0.27901300362428</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.4284503113450531</v>
+        <v>0.4275374955216793</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2948223698824952</v>
+        <v>0.2952537341949669</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.4490887321797867</v>
+        <v>0.4491533916920937</v>
       </c>
     </row>
     <row r="16">
@@ -1108,22 +1108,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>154711</v>
+        <v>152628</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>169865</v>
+        <v>171525</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>155075</v>
+        <v>153866</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>192747</v>
+        <v>191673</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>323173</v>
+        <v>324341</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>375333</v>
+        <v>377346</v>
       </c>
     </row>
     <row r="7">
@@ -1134,22 +1134,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>201790</v>
+        <v>200118</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>217691</v>
+        <v>219314</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>203488</v>
+        <v>203270</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>231981</v>
+        <v>231016</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>390697</v>
+        <v>392827</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>437445</v>
+        <v>438343</v>
       </c>
     </row>
     <row r="8">
@@ -1216,22 +1216,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>596031</v>
+        <v>595443</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1040024</v>
+        <v>1043387</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>525766</v>
+        <v>522236</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>948114</v>
+        <v>947007</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>1138257</v>
+        <v>1138671</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>2020362</v>
+        <v>2022954</v>
       </c>
     </row>
     <row r="11">
@@ -1242,22 +1242,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>681301</v>
+        <v>678833</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>1147603</v>
+        <v>1150067</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>608025</v>
+        <v>602522</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>1033697</v>
+        <v>1035522</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>1250679</v>
+        <v>1259616</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>2161698</v>
+        <v>2160840</v>
       </c>
     </row>
     <row r="12">
@@ -1324,22 +1324,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>187156</v>
+        <v>184391</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>309321</v>
+        <v>312141</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>165246</v>
+        <v>164537</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>303107</v>
+        <v>301562</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>362628</v>
+        <v>363268</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>626129</v>
+        <v>628246</v>
       </c>
     </row>
     <row r="15">
@@ -1350,22 +1350,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>231610</v>
+        <v>233700</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>366683</v>
+        <v>367803</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>210322</v>
+        <v>209739</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>352615</v>
+        <v>351614</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>429080</v>
+        <v>429295</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>708422</v>
+        <v>701410</v>
       </c>
     </row>
     <row r="16">
@@ -1432,22 +1432,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>971019</v>
+        <v>967698</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1564878</v>
+        <v>1562389</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>880104</v>
+        <v>876395</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>1477937</v>
+        <v>1475341</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1876754</v>
+        <v>1877362</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>3076977</v>
+        <v>3068275</v>
       </c>
     </row>
     <row r="19">
@@ -1458,22 +1458,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>1078458</v>
+        <v>1078729</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>1698246</v>
+        <v>1693076</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>986605</v>
+        <v>980915</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>1588138</v>
+        <v>1584755</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>2028278</v>
+        <v>2031246</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>3240812</v>
+        <v>3241279</v>
       </c>
     </row>
     <row r="20">
